--- a/04. 需求分析/雅耶需求清单.xlsx
+++ b/04. 需求分析/雅耶需求清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulinux/OneDrive/NetSuite/projects/Implementation/Yaye/04. 需求分析/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4727AF7-47B5-0441-B818-127CA8F63F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="114_{34642C42-D6A2-3245-963C-2985251F8509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C698967-4E0F-9942-8956-10BF1CBB68FD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{A09E88B2-C2E8-7348-943D-B2FC3B664FDC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$137</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -122,11 +122,6 @@
 FBA的收货数据可能会发生更改，一旦更改后，系统的收货数量也要随之更新。</t>
   </si>
   <si>
-    <t>头程在NS系统中完成之后，再同步到FBA；等到亚马逊的收货仓库确认之后，才能创建发货计划。
-有些亚马逊SKU是由几个库存货品组成的，也有不整箱，这些情况都需要能够处理。
-能够根据头程输出报关单。</t>
-  </si>
-  <si>
     <t>能够按供应商查询采购合同、收货和发票信息；并能够查看采购合同对应的收货和发票状况。</t>
   </si>
   <si>
@@ -402,11 +397,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>开发人员选择产品并完成比价之后，提交到系统内由产品开发组长进行初步审核；如果没有组长，可以直接提交给销售部门。
-销售部门的同事对提交的商品进行评审；评审的流程需要在系统内执行，并且为了保持独立性，在评审的时候，不能看到其他人的审批意见。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>开发产品人员会根据审核通过的商品数量进行奖金激励。
 除了这些奖励，产品开发人员还有与供应商的议价提成。</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -523,6 +513,15 @@
   </si>
   <si>
     <t>出口时，将未退税金额结转到主营业务成本科目中；退税完成后，将原凭证全部冲销掉，再生成正确的财务凭证。</t>
+  </si>
+  <si>
+    <t>开发人员选择产品并完成比价之后，提交到系统内由产品开发组长进行初步审核；如果没有组长，可以直接提交给销售部门。
+销售部门的同事对提交的商品进行评审；评审的流程需要在系统内执行，并且为了保持独立性，在评审的时候，不能看到其他人的审批意见。</t>
+  </si>
+  <si>
+    <t>香港公司根据国内的库存，制作采购订单；国内公司再生成相应的出口订单；同时，需要将此计划同步至亚马逊，生成发货计划。
+有些亚马逊SKU是由几个库存货品组成的，也有不整箱，这些情况都需要能够处理。
+能够根据头程输出报关单。</t>
   </si>
 </sst>
 </file>
@@ -959,11 +958,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D4B1D6-9916-8D48-8CD1-608020796C07}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
@@ -981,7 +981,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -1008,126 +1008,126 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="76">
+    <row r="2" spans="1:9" ht="76" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="76">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="76" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="38">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="38" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="38">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="38" hidden="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="38">
+    <row r="6" spans="1:9" ht="38" hidden="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="95">
+    <row r="7" spans="1:9" ht="95" hidden="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="19">
+    <row r="8" spans="1:9" ht="19" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="57">
+    <row r="9" spans="1:9" ht="57" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -1136,19 +1136,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19">
@@ -1156,19 +1156,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="133">
@@ -1176,19 +1176,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="133">
@@ -1196,19 +1196,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="95">
@@ -1216,19 +1216,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="38">
@@ -1236,16 +1236,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="57">
@@ -1253,16 +1253,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -1271,16 +1271,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -1289,19 +1289,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="76">
@@ -1309,19 +1309,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="95">
@@ -1329,19 +1329,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19">
@@ -1349,16 +1349,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H21" s="4"/>
     </row>
@@ -1367,16 +1367,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -1385,16 +1385,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -1403,20 +1403,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="57">
@@ -1424,19 +1424,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="57">
@@ -1444,19 +1444,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="57">
@@ -1464,19 +1464,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="114">
@@ -1484,16 +1484,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H28" s="4"/>
     </row>
@@ -1502,659 +1502,659 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="38">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="38" hidden="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="57">
+    <row r="31" spans="1:9" ht="57" hidden="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="95">
+    <row r="32" spans="1:9" ht="95" hidden="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="19">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19" hidden="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="19">
+    <row r="34" spans="1:8" ht="19" hidden="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="38">
+    <row r="35" spans="1:8" ht="38" hidden="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="57">
+    <row r="36" spans="1:8" ht="57" hidden="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="38">
+    <row r="37" spans="1:8" ht="38" hidden="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="57">
+    <row r="38" spans="1:8" ht="76" hidden="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="38">
+    <row r="39" spans="1:8" ht="38" hidden="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="38">
+    <row r="40" spans="1:8" ht="38" hidden="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="38">
+    <row r="41" spans="1:8" ht="38" hidden="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="38">
+    <row r="43" spans="1:8" ht="38" hidden="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="19">
+    <row r="45" spans="1:8" ht="19" hidden="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="38">
+    <row r="46" spans="1:8" ht="38" hidden="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="19">
+    <row r="47" spans="1:8" ht="19" hidden="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="57">
+    <row r="48" spans="1:8" ht="57" hidden="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="38">
+    <row r="49" spans="1:8" ht="38" hidden="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="57">
+    <row r="50" spans="1:8" ht="57" hidden="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" ht="38">
+    <row r="51" spans="1:8" ht="38" hidden="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="38">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="38" hidden="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" ht="38">
+    <row r="53" spans="1:8" ht="38" hidden="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="133">
+    </row>
+    <row r="54" spans="1:8" ht="133" hidden="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" ht="19">
+    <row r="55" spans="1:8" ht="19" hidden="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" ht="152">
+    <row r="56" spans="1:8" ht="152" hidden="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" ht="76">
+    <row r="57" spans="1:8" ht="76" hidden="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" ht="57">
+    <row r="58" spans="1:8" ht="57" hidden="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" ht="19">
+    <row r="59" spans="1:8" ht="19" hidden="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" ht="19">
+    <row r="60" spans="1:8" ht="19" hidden="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="57">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="57" hidden="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="19">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19" hidden="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" ht="19">
+    <row r="63" spans="1:8" ht="19" hidden="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" ht="19">
+    <row r="64" spans="1:8" ht="19" hidden="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" ht="38">
+    <row r="65" spans="1:8" ht="38" hidden="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2165,14 +2165,14 @@
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="38">
+    <row r="66" spans="1:8" ht="38" hidden="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2183,14 +2183,14 @@
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="38">
+    <row r="67" spans="1:8" ht="38" hidden="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2198,17 +2198,17 @@
         <v>7</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="133">
+    <row r="68" spans="1:8" ht="133" hidden="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2219,14 +2219,14 @@
         <v>10</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" ht="19">
+    <row r="69" spans="1:8" ht="19" hidden="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2237,14 +2237,14 @@
         <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" ht="19">
+    <row r="70" spans="1:8" ht="19" hidden="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2252,17 +2252,17 @@
         <v>7</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="38">
+    <row r="71" spans="1:8" ht="38" hidden="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2270,17 +2270,17 @@
         <v>7</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" ht="38">
+    <row r="72" spans="1:8" ht="38" hidden="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2288,17 +2288,17 @@
         <v>7</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="38">
+    <row r="73" spans="1:8" ht="38" hidden="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2306,17 +2306,17 @@
         <v>7</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="19">
+    <row r="74" spans="1:8" ht="19" hidden="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2324,17 +2324,17 @@
         <v>7</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="57">
+    <row r="75" spans="1:8" ht="57" hidden="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2342,17 +2342,17 @@
         <v>7</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="19">
+    <row r="76" spans="1:8" ht="19" hidden="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2363,14 +2363,14 @@
         <v>12</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="57">
+    <row r="77" spans="1:8" ht="57" hidden="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2378,17 +2378,17 @@
         <v>7</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="38">
+    <row r="78" spans="1:8" ht="38" hidden="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2396,17 +2396,17 @@
         <v>7</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" ht="19">
+    <row r="79" spans="1:8" ht="19" hidden="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2414,17 +2414,17 @@
         <v>7</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" ht="19">
+    <row r="80" spans="1:8" ht="19" hidden="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2432,17 +2432,17 @@
         <v>7</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:9" ht="19">
+    <row r="81" spans="1:9" ht="19" hidden="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2450,75 +2450,75 @@
         <v>7</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:9" ht="38">
+    <row r="82" spans="1:9" ht="38" hidden="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:9" ht="57">
+    <row r="83" spans="1:9" ht="57" hidden="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:9" s="8" customFormat="1" ht="19">
+    <row r="84" spans="1:9" s="8" customFormat="1" ht="19" hidden="1">
       <c r="A84" s="8">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="19">
+    <row r="85" spans="1:9" ht="19" hidden="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2526,17 +2526,17 @@
         <v>7</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:9" ht="19">
+    <row r="86" spans="1:9" ht="19" hidden="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2544,17 +2544,17 @@
         <v>7</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:9" ht="38">
+    <row r="87" spans="1:9" ht="38" hidden="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2562,62 +2562,62 @@
         <v>7</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:9" ht="76">
+    <row r="88" spans="1:9" ht="76" hidden="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:9" ht="19">
+    <row r="89" spans="1:9" ht="19" hidden="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:9" ht="19">
+    <row r="90" spans="1:9" ht="19" hidden="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:9" ht="38">
+    <row r="91" spans="1:9" ht="38" hidden="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2625,17 +2625,17 @@
         <v>7</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:9" ht="19">
+    <row r="92" spans="1:9" ht="19" hidden="1">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2643,149 +2643,155 @@
         <v>7</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1">
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1">
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" hidden="1">
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1">
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="8:8">
+    <row r="97" spans="8:8" hidden="1">
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="8:8">
+    <row r="98" spans="8:8" hidden="1">
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="8:8">
+    <row r="99" spans="8:8" hidden="1">
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="8:8">
+    <row r="100" spans="8:8" hidden="1">
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="8:8">
+    <row r="101" spans="8:8" hidden="1">
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="8:8">
+    <row r="102" spans="8:8" hidden="1">
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="8:8">
+    <row r="103" spans="8:8" hidden="1">
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="8:8">
+    <row r="104" spans="8:8" hidden="1">
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="8:8">
+    <row r="105" spans="8:8" hidden="1">
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="8:8">
+    <row r="106" spans="8:8" hidden="1">
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="8:8">
+    <row r="107" spans="8:8" hidden="1">
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="8:8">
+    <row r="108" spans="8:8" hidden="1">
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="8:8">
+    <row r="109" spans="8:8" hidden="1">
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="8:8">
+    <row r="110" spans="8:8" hidden="1">
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="8:8">
+    <row r="111" spans="8:8" hidden="1">
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="8:8">
+    <row r="112" spans="8:8" hidden="1">
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="8:8">
+    <row r="113" spans="8:8" hidden="1">
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="8:8">
+    <row r="114" spans="8:8" hidden="1">
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="8:8">
+    <row r="115" spans="8:8" hidden="1">
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="8:8">
+    <row r="116" spans="8:8" hidden="1">
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="8:8">
+    <row r="117" spans="8:8" hidden="1">
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="8:8">
+    <row r="118" spans="8:8" hidden="1">
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="8:8">
+    <row r="119" spans="8:8" hidden="1">
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="8:8">
+    <row r="120" spans="8:8" hidden="1">
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="8:8">
+    <row r="121" spans="8:8" hidden="1">
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="8:8">
+    <row r="122" spans="8:8" hidden="1">
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="8:8">
+    <row r="123" spans="8:8" hidden="1">
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="8:8">
+    <row r="124" spans="8:8" hidden="1">
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="8:8">
+    <row r="125" spans="8:8" hidden="1">
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="8:8">
+    <row r="126" spans="8:8" hidden="1">
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="8:8">
+    <row r="127" spans="8:8" hidden="1">
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="8:8">
+    <row r="128" spans="8:8" hidden="1">
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="8:8">
+    <row r="129" spans="8:8" hidden="1">
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="8:8">
+    <row r="130" spans="8:8" hidden="1">
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="8:8">
+    <row r="131" spans="8:8" hidden="1">
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="8:8">
+    <row r="132" spans="8:8" hidden="1">
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="8:8">
+    <row r="133" spans="8:8" hidden="1">
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="8:8">
+    <row r="134" spans="8:8" hidden="1">
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="8:8">
+    <row r="135" spans="8:8" hidden="1">
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="8:8">
+    <row r="136" spans="8:8" hidden="1">
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="8:8">
+    <row r="137" spans="8:8" hidden="1">
       <c r="H137" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E137" xr:uid="{FB2E8E51-BF4F-7A4D-8F3A-F369B9595DC3}"/>
+  <autoFilter ref="A1:I137" xr:uid="{6A8E3C12-8F81-C24B-8AF3-8B37ADC374A3}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="跟单组"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G1048576" xr:uid="{CEB922BC-0599-AA41-8872-7A72194CB839}">
